--- a/refs/heads/who-116-registrust-vocab/CodeSystem-trust-service-context.xlsx
+++ b/refs/heads/who-116-registrust-vocab/CodeSystem-trust-service-context.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T22:50:38+00:00</t>
+    <t>2023-02-22T23:06:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
